--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124012a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124012a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +582,27 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.8968655218107695</v>
+      </c>
+      <c r="D5">
+        <v>1.044112926243725</v>
+      </c>
+      <c r="E5">
+        <v>1.234518761127987</v>
+      </c>
+      <c r="F5">
+        <v>1.191511149815855</v>
+      </c>
+      <c r="G5">
+        <v>3.499768317209221</v>
+      </c>
+      <c r="H5">
+        <v>1.347371282928982</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -597,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8968655218107695</v>
+        <v>2.818670161184269</v>
       </c>
       <c r="D6">
-        <v>1.044112926243725</v>
+        <v>5.364156496925846</v>
       </c>
       <c r="E6">
-        <v>1.234518761127987</v>
+        <v>7.279923109581033</v>
       </c>
       <c r="F6">
-        <v>1.191511149815855</v>
+        <v>3.672078281193171</v>
       </c>
       <c r="G6">
-        <v>3.499768317209221</v>
+        <v>16.55096441483396</v>
       </c>
       <c r="H6">
-        <v>1.347371282928982</v>
+        <v>4.000806293977019</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,28 +638,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.818670161184269</v>
+        <v>1.877496705278</v>
       </c>
       <c r="D7">
-        <v>5.364156496925846</v>
+        <v>2.274978355932828</v>
       </c>
       <c r="E7">
-        <v>7.279923109581033</v>
+        <v>3.639945848347392</v>
       </c>
       <c r="F7">
-        <v>3.672078281193171</v>
+        <v>1.22966712210823</v>
       </c>
       <c r="G7">
-        <v>16.55096441483396</v>
+        <v>8.449016256910463</v>
       </c>
       <c r="H7">
-        <v>4.000806293977019</v>
+        <v>1.425296705681488</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6.754054222047422</v>
+      </c>
+      <c r="D8">
+        <v>9.012809739489358</v>
+      </c>
+      <c r="E8">
+        <v>10.51933176681256</v>
+      </c>
+      <c r="F8">
+        <v>5.633003715669057</v>
+      </c>
+      <c r="G8">
+        <v>24.81213262885675</v>
+      </c>
+      <c r="H8">
+        <v>6.698005385074504</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -654,22 +690,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.877496705278</v>
+        <v>9.269970907593418</v>
       </c>
       <c r="D9">
-        <v>2.274978355932828</v>
+        <v>15.98582028207024</v>
       </c>
       <c r="E9">
-        <v>3.639945848347392</v>
+        <v>13.33560799742979</v>
       </c>
       <c r="F9">
-        <v>1.22966712210823</v>
+        <v>6.148627096299093</v>
       </c>
       <c r="G9">
-        <v>8.449016256910463</v>
+        <v>38.23109363186479</v>
       </c>
       <c r="H9">
-        <v>1.425296705681488</v>
+        <v>8.709281375778202</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -680,22 +716,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.754054222047422</v>
+        <v>4.879487998743008</v>
       </c>
       <c r="D10">
-        <v>9.012809739489358</v>
+        <v>5.830849062262841</v>
       </c>
       <c r="E10">
-        <v>10.51933176681256</v>
+        <v>11.18145904401383</v>
       </c>
       <c r="F10">
-        <v>5.633003715669057</v>
+        <v>3.301871986655328</v>
       </c>
       <c r="G10">
-        <v>24.81213262885675</v>
+        <v>30.74314374944577</v>
       </c>
       <c r="H10">
-        <v>6.698005385074504</v>
+        <v>3.792125510649093</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -706,22 +742,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.269970907593418</v>
+        <v>9.035436673794589</v>
       </c>
       <c r="D11">
-        <v>15.98582028207024</v>
+        <v>12.64488292102383</v>
       </c>
       <c r="E11">
-        <v>13.33560799742979</v>
+        <v>27.11772261981192</v>
       </c>
       <c r="F11">
-        <v>6.148627096299093</v>
+        <v>9.303026208461267</v>
       </c>
       <c r="G11">
-        <v>38.23109363186479</v>
+        <v>35.17199825636557</v>
       </c>
       <c r="H11">
-        <v>8.709281375778202</v>
+        <v>10.29564592193314</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -732,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.879487998743008</v>
+        <v>2.448992792782217</v>
       </c>
       <c r="D12">
-        <v>5.830849062262841</v>
+        <v>2.808021080964812</v>
       </c>
       <c r="E12">
-        <v>11.18145904401383</v>
+        <v>4.600975536970973</v>
       </c>
       <c r="F12">
-        <v>3.301871986655328</v>
+        <v>1.469475630066137</v>
       </c>
       <c r="G12">
-        <v>30.74314374944577</v>
+        <v>10.61411463870751</v>
       </c>
       <c r="H12">
-        <v>3.792125510649093</v>
+        <v>1.672235634828138</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -758,22 +794,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.035436673794589</v>
+        <v>7.019121158485811</v>
       </c>
       <c r="D13">
-        <v>12.64488292102383</v>
+        <v>10.67310614634208</v>
       </c>
       <c r="E13">
-        <v>27.11772261981192</v>
+        <v>15.52602467013654</v>
       </c>
       <c r="F13">
-        <v>9.303026208461267</v>
+        <v>5.420430364683044</v>
       </c>
       <c r="G13">
-        <v>35.17199825636557</v>
+        <v>29.15130346683726</v>
       </c>
       <c r="H13">
-        <v>10.29564592193314</v>
+        <v>7.240378867417252</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -784,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.448992792782217</v>
+        <v>8.083017374757056</v>
       </c>
       <c r="D14">
-        <v>2.808021080964812</v>
+        <v>13.47169562459509</v>
       </c>
       <c r="E14">
-        <v>4.600975536970973</v>
+        <v>10.56602798412961</v>
       </c>
       <c r="F14">
-        <v>1.469475630066137</v>
+        <v>5.193471382029807</v>
       </c>
       <c r="G14">
-        <v>10.61411463870751</v>
+        <v>34.81401726395216</v>
       </c>
       <c r="H14">
-        <v>1.672235634828138</v>
+        <v>5.007672429627112</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -810,22 +846,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.019121158485811</v>
+        <v>1.383817842521437</v>
       </c>
       <c r="D15">
-        <v>10.67310614634208</v>
+        <v>1.658173184378933</v>
       </c>
       <c r="E15">
-        <v>15.52602467013654</v>
+        <v>2.534464421883767</v>
       </c>
       <c r="F15">
-        <v>5.420430364683044</v>
+        <v>1.192520232462995</v>
       </c>
       <c r="G15">
-        <v>29.15130346683726</v>
+        <v>4.652719785673475</v>
       </c>
       <c r="H15">
-        <v>7.240378867417252</v>
+        <v>1.447804764360611</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -836,22 +872,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.083017374757056</v>
+        <v>4.89918241472859</v>
       </c>
       <c r="D16">
-        <v>13.47169562459509</v>
+        <v>7.076596821274627</v>
       </c>
       <c r="E16">
-        <v>10.56602798412961</v>
+        <v>14.41657810989262</v>
       </c>
       <c r="F16">
-        <v>5.193471382029807</v>
+        <v>4.629954531795827</v>
       </c>
       <c r="G16">
-        <v>34.81401726395216</v>
+        <v>19.1114681664587</v>
       </c>
       <c r="H16">
-        <v>5.007672429627112</v>
+        <v>5.892143581170155</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -862,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.383817842521437</v>
+        <v>7.159765932423787</v>
       </c>
       <c r="D17">
-        <v>1.658173184378933</v>
+        <v>6.968838840892486</v>
       </c>
       <c r="E17">
-        <v>2.534464421883767</v>
+        <v>16.35225107892908</v>
       </c>
       <c r="F17">
-        <v>1.192520232462995</v>
+        <v>5.648959463630044</v>
       </c>
       <c r="G17">
-        <v>4.652719785673475</v>
+        <v>36.28737764816331</v>
       </c>
       <c r="H17">
-        <v>1.447804764360611</v>
+        <v>5.702256756019761</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -888,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.89918241472859</v>
+        <v>2.878075371246741</v>
       </c>
       <c r="D18">
-        <v>7.076596821274627</v>
+        <v>3.391180481053107</v>
       </c>
       <c r="E18">
-        <v>14.41657810989262</v>
+        <v>4.5716068646357</v>
       </c>
       <c r="F18">
-        <v>4.629954531795827</v>
+        <v>2.238307429391336</v>
       </c>
       <c r="G18">
-        <v>19.1114681664587</v>
+        <v>14.49455087758738</v>
       </c>
       <c r="H18">
-        <v>5.892143581170155</v>
+        <v>2.527350733728699</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -914,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.159765932423787</v>
+        <v>5.026218374074958</v>
       </c>
       <c r="D19">
-        <v>6.968838840892486</v>
+        <v>5.627948742802243</v>
       </c>
       <c r="E19">
-        <v>16.35225107892908</v>
+        <v>7.388073506651528</v>
       </c>
       <c r="F19">
-        <v>5.648959463630044</v>
+        <v>5.247211297337734</v>
       </c>
       <c r="G19">
-        <v>36.28737764816331</v>
+        <v>17.46276652931299</v>
       </c>
       <c r="H19">
-        <v>5.702256756019761</v>
+        <v>6.1028376845091</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -940,22 +976,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.878075371246741</v>
+        <v>6.957279076615865</v>
       </c>
       <c r="D20">
-        <v>3.391180481053107</v>
+        <v>8.460051357164895</v>
       </c>
       <c r="E20">
-        <v>4.5716068646357</v>
+        <v>6.144939814524887</v>
       </c>
       <c r="F20">
-        <v>2.238307429391336</v>
+        <v>5.602186529976084</v>
       </c>
       <c r="G20">
-        <v>14.49455087758738</v>
+        <v>24.8559870131519</v>
       </c>
       <c r="H20">
-        <v>2.527350733728699</v>
+        <v>6.289166474489019</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -966,22 +1002,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.026218374074958</v>
+        <v>3.089837198383595</v>
       </c>
       <c r="D21">
-        <v>5.627948742802243</v>
+        <v>3.604578620824657</v>
       </c>
       <c r="E21">
-        <v>7.388073506651528</v>
+        <v>4.118754128621939</v>
       </c>
       <c r="F21">
-        <v>5.247211297337734</v>
+        <v>2.673625708680478</v>
       </c>
       <c r="G21">
-        <v>17.46276652931299</v>
+        <v>11.71296428593307</v>
       </c>
       <c r="H21">
-        <v>6.1028376845091</v>
+        <v>3.066580364521361</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -992,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.957279076615865</v>
+        <v>7.494138177206837</v>
       </c>
       <c r="D22">
-        <v>8.460051357164895</v>
+        <v>9.60516301585665</v>
       </c>
       <c r="E22">
-        <v>6.144939814524887</v>
+        <v>11.48781721090159</v>
       </c>
       <c r="F22">
-        <v>5.602186529976084</v>
+        <v>5.585819377777839</v>
       </c>
       <c r="G22">
-        <v>24.8559870131519</v>
+        <v>42.22422399938348</v>
       </c>
       <c r="H22">
-        <v>6.289166474489019</v>
+        <v>6.862308674169966</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1018,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.089837198383595</v>
+        <v>4.268134197599046</v>
       </c>
       <c r="D23">
-        <v>3.604578620824657</v>
+        <v>7.11355699599841</v>
       </c>
       <c r="E23">
-        <v>4.118754128621939</v>
+        <v>9.617344497042289</v>
       </c>
       <c r="F23">
-        <v>2.673625708680478</v>
+        <v>4.371520225928314</v>
       </c>
       <c r="G23">
-        <v>11.71296428593307</v>
+        <v>27.67914931180206</v>
       </c>
       <c r="H23">
-        <v>3.066580364521361</v>
+        <v>4.966670528579902</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1044,22 +1080,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.494138177206837</v>
+        <v>2.628912348866461</v>
       </c>
       <c r="D24">
-        <v>9.60516301585665</v>
+        <v>2.953547356873945</v>
       </c>
       <c r="E24">
-        <v>11.48781721090159</v>
+        <v>6.606106044133889</v>
       </c>
       <c r="F24">
-        <v>5.585819377777839</v>
+        <v>1.903435593020832</v>
       </c>
       <c r="G24">
-        <v>42.22422399938348</v>
+        <v>5.601292394596633</v>
       </c>
       <c r="H24">
-        <v>6.862308674169966</v>
+        <v>2.557966301981248</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1070,22 +1106,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.268134197599046</v>
+        <v>1.689682490545073</v>
       </c>
       <c r="D25">
-        <v>7.11355699599841</v>
+        <v>1.901570844876855</v>
       </c>
       <c r="E25">
-        <v>9.617344497042289</v>
+        <v>1.678865689790638</v>
       </c>
       <c r="F25">
-        <v>4.371520225928314</v>
+        <v>2.65131080266215</v>
       </c>
       <c r="G25">
-        <v>27.67914931180206</v>
+        <v>7.109104811894533</v>
       </c>
       <c r="H25">
-        <v>4.966670528579902</v>
+        <v>3.000421178302992</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1096,22 +1132,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>2.628912348866461</v>
+        <v>3.158653043802631</v>
       </c>
       <c r="D26">
-        <v>2.953547356873945</v>
+        <v>3.80914609224607</v>
       </c>
       <c r="E26">
-        <v>6.606106044133889</v>
+        <v>4.536056000867568</v>
       </c>
       <c r="F26">
-        <v>1.903435593020832</v>
+        <v>3.697739466669526</v>
       </c>
       <c r="G26">
-        <v>5.601292394596633</v>
+        <v>11.77696134561599</v>
       </c>
       <c r="H26">
-        <v>2.557966301981248</v>
+        <v>4.358103974949802</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1122,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1.689682490545073</v>
+        <v>7.159357854353041</v>
       </c>
       <c r="D27">
-        <v>1.901570844876855</v>
+        <v>7.223280692338334</v>
       </c>
       <c r="E27">
-        <v>1.678865689790638</v>
+        <v>8.979294307286212</v>
       </c>
       <c r="F27">
-        <v>2.65131080266215</v>
+        <v>6.614172420409996</v>
       </c>
       <c r="G27">
-        <v>7.109104811894533</v>
+        <v>18.67770797098423</v>
       </c>
       <c r="H27">
-        <v>3.000421178302992</v>
+        <v>8.678684087235684</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1148,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3.158653043802631</v>
+        <v>2.96063103907139</v>
       </c>
       <c r="D28">
-        <v>3.80914609224607</v>
+        <v>3.259727014466778</v>
       </c>
       <c r="E28">
-        <v>4.536056000867568</v>
+        <v>3.195980991237122</v>
       </c>
       <c r="F28">
-        <v>3.697739466669526</v>
+        <v>5.083038091455201</v>
       </c>
       <c r="G28">
-        <v>11.77696134561599</v>
+        <v>12.66981013458279</v>
       </c>
       <c r="H28">
-        <v>4.358103974949802</v>
+        <v>5.902332261396657</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1174,22 +1210,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>7.159357854353041</v>
+        <v>2.5457104099046</v>
       </c>
       <c r="D29">
-        <v>7.223280692338334</v>
+        <v>2.857115985088393</v>
       </c>
       <c r="E29">
-        <v>8.979294307286212</v>
+        <v>2.134562338326031</v>
       </c>
       <c r="F29">
-        <v>6.614172420409996</v>
+        <v>4.3908471989603</v>
       </c>
       <c r="G29">
-        <v>18.67770797098423</v>
+        <v>12.6066597356162</v>
       </c>
       <c r="H29">
-        <v>8.678684087235684</v>
+        <v>4.890230269460609</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1200,22 +1236,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2.96063103907139</v>
+        <v>2.139151456827012</v>
       </c>
       <c r="D30">
-        <v>3.259727014466778</v>
+        <v>3.01034230647842</v>
       </c>
       <c r="E30">
-        <v>3.195980991237122</v>
+        <v>1.445808824376036</v>
       </c>
       <c r="F30">
-        <v>5.083038091455201</v>
+        <v>6.211713085970322</v>
       </c>
       <c r="G30">
-        <v>12.66981013458279</v>
+        <v>12.11424211116251</v>
       </c>
       <c r="H30">
-        <v>5.902332261396657</v>
+        <v>7.265026081312508</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1226,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>2.5457104099046</v>
+        <v>3.255816313149232</v>
       </c>
       <c r="D31">
-        <v>2.857115985088393</v>
+        <v>4.577689786264863</v>
       </c>
       <c r="E31">
-        <v>2.134562338326031</v>
+        <v>2.445121257618934</v>
       </c>
       <c r="F31">
-        <v>4.3908471989603</v>
+        <v>8.66765056947178</v>
       </c>
       <c r="G31">
-        <v>12.6066597356162</v>
+        <v>22.7549315614092</v>
       </c>
       <c r="H31">
-        <v>4.890230269460609</v>
+        <v>9.405911774309409</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1252,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2.139151456827012</v>
+        <v>7.236746524003449</v>
       </c>
       <c r="D32">
-        <v>3.01034230647842</v>
+        <v>11.64939684351775</v>
       </c>
       <c r="E32">
-        <v>1.445808824376036</v>
+        <v>3.308020742792192</v>
       </c>
       <c r="F32">
-        <v>6.211713085970322</v>
+        <v>22.64979540986228</v>
       </c>
       <c r="G32">
-        <v>12.11424211116251</v>
+        <v>66.01105138879674</v>
       </c>
       <c r="H32">
-        <v>7.265026081312508</v>
+        <v>25.92789590569613</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1278,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.255816313149232</v>
+        <v>2.962798451172754</v>
       </c>
       <c r="D33">
-        <v>4.577689786264863</v>
+        <v>4.032336534229135</v>
       </c>
       <c r="E33">
-        <v>2.445121257618934</v>
+        <v>1.814292859429336</v>
       </c>
       <c r="F33">
-        <v>8.66765056947178</v>
+        <v>8.970648324225994</v>
       </c>
       <c r="G33">
-        <v>22.7549315614092</v>
+        <v>14.11289876254698</v>
       </c>
       <c r="H33">
-        <v>9.405911774309409</v>
+        <v>11.32123686335768</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1304,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>7.236746524003449</v>
+        <v>2.539517398504014</v>
       </c>
       <c r="D34">
-        <v>11.64939684351775</v>
+        <v>3.032619223246842</v>
       </c>
       <c r="E34">
-        <v>3.308020742792192</v>
+        <v>3.488635160426151</v>
       </c>
       <c r="F34">
-        <v>22.64979540986228</v>
+        <v>2.321154907159779</v>
       </c>
       <c r="G34">
-        <v>66.01105138879674</v>
+        <v>9.017223990807352</v>
       </c>
       <c r="H34">
-        <v>25.92789590569613</v>
+        <v>2.780823109685548</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1330,22 +1366,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2.962798451172754</v>
+        <v>8.328077855524558</v>
       </c>
       <c r="D35">
-        <v>4.032336534229135</v>
+        <v>9.105365122040183</v>
       </c>
       <c r="E35">
-        <v>1.814292859429336</v>
+        <v>9.143893500938164</v>
       </c>
       <c r="F35">
-        <v>8.970648324225994</v>
+        <v>9.006579158785426</v>
       </c>
       <c r="G35">
-        <v>14.11289876254698</v>
+        <v>38.73005355357765</v>
       </c>
       <c r="H35">
-        <v>11.32123686335768</v>
+        <v>9.794192067632483</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1356,22 +1392,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>2.539517398504014</v>
+        <v>7.683742750685382</v>
       </c>
       <c r="D36">
-        <v>3.032619223246842</v>
+        <v>8.179468089439277</v>
       </c>
       <c r="E36">
-        <v>3.488635160426151</v>
+        <v>8.751410646913158</v>
       </c>
       <c r="F36">
-        <v>2.321154907159779</v>
+        <v>5.918215363960865</v>
       </c>
       <c r="G36">
-        <v>9.017223990807352</v>
+        <v>18.90203761164505</v>
       </c>
       <c r="H36">
-        <v>2.780823109685548</v>
+        <v>8.561450800755672</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1382,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>8.328077855524558</v>
+        <v>3.897573839268312</v>
       </c>
       <c r="D37">
-        <v>9.105365122040183</v>
+        <v>4.921360515942477</v>
       </c>
       <c r="E37">
-        <v>9.143893500938164</v>
+        <v>5.363369484772886</v>
       </c>
       <c r="F37">
-        <v>9.006579158785426</v>
+        <v>3.488922827463167</v>
       </c>
       <c r="G37">
-        <v>38.73005355357765</v>
+        <v>15.53546192338558</v>
       </c>
       <c r="H37">
-        <v>9.794192067632483</v>
+        <v>3.879724325380776</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1408,73 +1444,21 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>7.683742750685382</v>
+        <v>3.647710221615036</v>
       </c>
       <c r="D38">
-        <v>8.179468089439277</v>
+        <v>4.478083280194068</v>
       </c>
       <c r="E38">
-        <v>8.751410646913158</v>
+        <v>6.514760164363168</v>
       </c>
       <c r="F38">
-        <v>5.918215363960865</v>
+        <v>3.70631318673392</v>
       </c>
       <c r="G38">
-        <v>18.90203761164505</v>
+        <v>13.05501561310224</v>
       </c>
       <c r="H38">
-        <v>8.561450800755672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>3.897573839268312</v>
-      </c>
-      <c r="D39">
-        <v>4.921360515942477</v>
-      </c>
-      <c r="E39">
-        <v>5.363369484772886</v>
-      </c>
-      <c r="F39">
-        <v>3.488922827463167</v>
-      </c>
-      <c r="G39">
-        <v>15.53546192338558</v>
-      </c>
-      <c r="H39">
-        <v>3.879724325380776</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>3.647710221615036</v>
-      </c>
-      <c r="D40">
-        <v>4.478083280194068</v>
-      </c>
-      <c r="E40">
-        <v>6.514760164363168</v>
-      </c>
-      <c r="F40">
-        <v>3.70631318673392</v>
-      </c>
-      <c r="G40">
-        <v>13.05501561310224</v>
-      </c>
-      <c r="H40">
         <v>4.378748289973906</v>
       </c>
     </row>
